--- a/figures/Newly_03172015/confusion_matrix.xlsx
+++ b/figures/Newly_03172015/confusion_matrix.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="22755" windowHeight="9750"/>
+    <workbookView xWindow="360" yWindow="450" windowWidth="22755" windowHeight="9690"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="low-stringency" sheetId="1" r:id="rId1"/>
+    <sheet name="high-stringency" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>group_A</t>
   </si>
@@ -397,17 +396,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -449,7 +448,7 @@
       <c r="C2">
         <v>132</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>11</v>
       </c>
       <c r="G2">
@@ -457,8 +456,8 @@
         <v>150</v>
       </c>
       <c r="H2">
-        <f>(B2/G2)*100</f>
-        <v>4.666666666666667</v>
+        <f>(C2/G2)*100</f>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -473,8 +472,8 @@
         <v>169</v>
       </c>
       <c r="H3">
-        <f>C3/G3</f>
-        <v>0</v>
+        <f>(D3/G3)*100</f>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -487,7 +486,7 @@
       <c r="C4">
         <v>26</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>5</v>
       </c>
       <c r="G4">
@@ -495,8 +494,8 @@
         <v>166</v>
       </c>
       <c r="H4">
-        <f>(D4/G4)*100</f>
-        <v>3.0120481927710845</v>
+        <f>(B4/G4)*100</f>
+        <v>81.325301204819283</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -514,8 +513,8 @@
         <v>181</v>
       </c>
       <c r="H5">
-        <f>(E5/G5)*100</f>
-        <v>8.2872928176795568</v>
+        <f>(F5/G5)*100</f>
+        <v>91.712707182320443</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -539,14 +538,27 @@
         <v>186</v>
       </c>
       <c r="H6">
-        <f>(F6/G6)*100</f>
-        <v>23.118279569892472</v>
+        <f>(E6/G6)*100</f>
+        <v>59.677419354838712</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G7">
         <f>SUM(G2:G6)</f>
         <v>852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <f>20000-G7</f>
+        <v>19148</v>
+      </c>
+      <c r="H9">
+        <f>(19000/G9)*100</f>
+        <v>99.227073323584719</v>
       </c>
     </row>
   </sheetData>
@@ -556,12 +568,172 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>67</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <f>SUM(B2:F2)</f>
+        <v>85</v>
+      </c>
+      <c r="H2">
+        <f>(C2/G2)*100</f>
+        <v>78.82352941176471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>87</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G6" si="0">SUM(B3:F3)</f>
+        <v>87</v>
+      </c>
+      <c r="H3">
+        <f>(D3/G3)*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>78</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="H4">
+        <f>(B4/G4)*100</f>
+        <v>87.640449438202253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>93</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="H5">
+        <f>(F5/G5)*100</f>
+        <v>93.939393939393938</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>97</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="H6">
+        <f>(E6/G6)*100</f>
+        <v>78.861788617886177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f>SUM(G2:G6)</f>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <f>20000-G7</f>
+        <v>19517</v>
+      </c>
+      <c r="H9">
+        <f>(19000/G9)*100</f>
+        <v>97.351027309525023</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
